--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - GR Chia S.A.S\Escritorio\UCO\DOO GIT\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2DA642-F5E2-414D-A07A-2B63A2C8415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84E8A2-D631-4887-88E4-A4A856AB849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4815" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>Nombre</t>
   </si>
@@ -167,9 +167,6 @@
     <t>TipoNotificacion</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene el tipo de notificacion que se va a enviar para la trazabildiad</t>
-  </si>
-  <si>
     <t>Identificador</t>
   </si>
   <si>
@@ -210,13 +207,70 @@
   </si>
   <si>
     <t>Esta combinacion unica identifica el tipo de notificacion que se hace para asociar al serial de la notificacion</t>
+  </si>
+  <si>
+    <t>Propio</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>ListaNotificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </t>
+  </si>
+  <si>
+    <t>TipoNotificación</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la información de los tipos de notificaciones que tiene el spa</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion de  los clientes </t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>TipoObjetoDominio</t>
+  </si>
+  <si>
+    <t>Contextro</t>
+  </si>
+  <si>
+    <t>NotificadoA</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>EsNotificado</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Solo letras (sin tilde) con espacios</t>
+  </si>
+  <si>
+    <t>Atributo que contiene una lista de notificaciones</t>
+  </si>
+  <si>
+    <t>Atributo que contienen el dato de donde se va a enviar la notificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +314,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +552,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -658,8 +705,62 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -682,67 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,22 +816,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514118</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163224</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>29741</xdr:rowOff>
+      <xdr:rowOff>638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F3F484-88BE-A3CE-62E6-6E5B7B26C223}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE81EC0-FC23-4366-94E9-2FA937685FE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,8 +847,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="246530" y="257735"/>
-          <a:ext cx="6363588" cy="4344006"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9307224" cy="4572638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1119,7 +1160,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,42 +1185,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="C1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>41</v>
+      <c r="C2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1190,10 +1279,637 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="73" t="str">
+        <f>+'Listado Objetos de Dominio'!B2</f>
+        <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="37" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f>A19</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A20</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="66"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="26"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
+    <hyperlink ref="H20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,70 +1939,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="54" t="str">
-        <f>'Listado Objetos de Dominio'!$A$2</f>
-        <v>Notificacion</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="str">
+        <f>'Listado Objetos de Dominio'!$A$3</f>
+        <v>ListaNotificacion</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55" t="str">
-        <f>'Listado Objetos de Dominio'!$B$2</f>
-        <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
+      <c r="B3" s="73" t="str">
+        <f>'Listado Objetos de Dominio'!$B$3</f>
+        <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1338,28 +2054,28 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A13</f>
+        <f>A14</f>
         <v>Reponsabilidad 1</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A14</f>
+        <f>A15</f>
         <v>Reponsabilidad 2</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A15</f>
+        <f>A16</f>
         <v>Reponsabilidad 3</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A16</f>
+        <f>A17</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1371,477 +2087,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="Q5" s="34"/>
       <c r="R5" s="23"/>
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="63"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="26"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="27"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="O11:P11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H16" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A13:B13" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="54" t="str">
-        <f>'Listado Objetos de Dominio'!$A$3</f>
-        <v>TipoNotificacion</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="55" t="str">
-        <f>'Listado Objetos de Dominio'!$B$3</f>
-        <v>Objeto de dominio que contiene el tipo de notificacion que se va a enviar para la trazabildiad</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="37" t="str">
-        <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A15</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -1853,29 +2129,29 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="O6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
@@ -1884,11 +2160,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -1906,51 +2182,51 @@
         <v>40</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60" t="s">
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60" t="s">
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60" t="s">
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="63"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -1963,12 +2239,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -1983,88 +2259,88 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
       <c r="I14" s="22"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="46"/>
       <c r="H15" s="44"/>
       <c r="I15" s="45"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="27"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="42"/>
       <c r="H16" s="40"/>
       <c r="I16" s="41"/>
       <c r="J16" s="43"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
       <c r="O16" s="28"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="29"/>
       <c r="R16" s="30"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="48"/>
       <c r="H17" s="49"/>
       <c r="I17" s="47"/>
       <c r="J17" s="48"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -2072,6 +2348,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="K15:N15"/>
@@ -2084,17 +2371,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -2114,21 +2390,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -2272,24 +2533,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2307,6 +2566,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A84E8A2-D631-4887-88E4-A4A856AB849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DD7ECA-5746-440E-8BE3-29EE6463504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="Notificacion" sheetId="66" r:id="rId3"/>
     <sheet name="TipoNotificacion" sheetId="24" r:id="rId4"/>
+    <sheet name="ListaNotificacion" sheetId="68" r:id="rId5"/>
+    <sheet name="cliente" sheetId="69" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$3</definedName>
   </definedNames>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="176">
   <si>
     <t>Nombre</t>
   </si>
@@ -143,18 +148,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -200,9 +193,6 @@
     <t>IdentificadorNotificaciones</t>
   </si>
   <si>
-    <t>Combinacion unica encargada de generar un identificador asociado a la notificación con servicio o pago</t>
-  </si>
-  <si>
     <t>Atributo que contiene el nombre que identifica a un TipoNotificacion</t>
   </si>
   <si>
@@ -260,17 +250,338 @@
     <t>Solo letras (sin tilde) con espacios</t>
   </si>
   <si>
-    <t>Atributo que contiene una lista de notificaciones</t>
-  </si>
-  <si>
     <t>Atributo que contienen el dato de donde se va a enviar la notificacion</t>
+  </si>
+  <si>
+    <t>Numerico Entero</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada cliente</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Solo letras sin epacios y sin tildes</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre de un cliente</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>solo numeros</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el telefono del cliente</t>
+  </si>
+  <si>
+    <t>CorreoElectronico</t>
+  </si>
+  <si>
+    <t>Formato de correo electronico valido (nombre123@indicadordelcorreo.dominio) (pepito49@gmail.com)</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la infromacion del correo electronico de un cliente</t>
+  </si>
+  <si>
+    <t>NumeroDocumento</t>
+  </si>
+  <si>
+    <t>Solo numeros, con o sin guiones</t>
+  </si>
+  <si>
+    <t>Atributo que representa el numero o la serie del documento</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Crear TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Modificar TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Consultar TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Eliminar TipoNotificacion</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de eliminar los tipo de notificacion que tiene el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de consultar los tipo de notificacion que tiene el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de modificar los tipo de notificacion que tiene el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de crear los tipos de notificaciones que tiene el spa</t>
+  </si>
+  <si>
+    <t>Contiene la informacion del tipo de notificacion que se desea crear</t>
+  </si>
+  <si>
+    <t>Contiene la informacion del tipo de notificacion que se desea modificar</t>
+  </si>
+  <si>
+    <t>Contiene la informacion del tipo de notificacion que se desea consultar</t>
+  </si>
+  <si>
+    <t>Contiene la informacion del tipo de notificacion que se desea eliminar</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-001</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-002</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otro TipoNotificacion con el mismo Nombre </t>
+  </si>
+  <si>
+    <t>Los datos del nuevo TipoNotificacion deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos del nuevo TipoNotificacion deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debe existir el TipoNotificacion que se esta modificando </t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-003</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El usuario debe estar permitido para consultar</t>
+  </si>
+  <si>
+    <t>Pol-TipoNotificacion-005</t>
+  </si>
+  <si>
+    <t>Que el TipoNotificacion  exista</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe un tipo de notificacion con ese nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que el tipo de notificacion no existe</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que el usuario no tiene permisos</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que el tipo notificacion a eliminar no existe</t>
+  </si>
+  <si>
+    <t>cancelar creacion tipo notificacion</t>
+  </si>
+  <si>
+    <t>cancelar modificacion tipo notificacion</t>
+  </si>
+  <si>
+    <t>cancelar consulta tipo notificaion</t>
+  </si>
+  <si>
+    <t>cancelar eliminacion de tipo notificacion</t>
+  </si>
+  <si>
+    <t>nombre lista unico</t>
+  </si>
+  <si>
+    <t>no debe existir mas de una lista de notificacion con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Crear ListaNotificacion</t>
+  </si>
+  <si>
+    <t>Consultar ListaNotificacion</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de crear una listanotificaciones para el spa</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de consultar la lista de notificaciones  creadas enel spa</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion para crear una lista de notificaciones</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion para consultar una lista de notificaciones</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-002</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-001</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-003</t>
+  </si>
+  <si>
+    <t>Pol-ListaNotificacion-004</t>
+  </si>
+  <si>
+    <t>No debe existir otra ListaNotificacion con el mismo nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos nuevos de ListaNotificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe una lista con ese nombre</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que el usuario no esta permitido para consultar</t>
+  </si>
+  <si>
+    <t>cancelar creacion listanotificacion</t>
+  </si>
+  <si>
+    <t>cancelar consulta listanotificacion</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el tipo de notificaciones</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la informacion del mensaje</t>
+  </si>
+  <si>
+    <t>atributo que contiene la informcion de si sentrego o no la notificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinacion unica encargada de generar un identificador asociado a la notificación </t>
+  </si>
+  <si>
+    <t>Crear Notificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar Notificacion  </t>
+  </si>
+  <si>
+    <t>Consultar Notificacion</t>
+  </si>
+  <si>
+    <t>Eliminar  Notificacion</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de eliminar las notificaciones principalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comando que se encarga de consultar las notificaciones existentes  </t>
+  </si>
+  <si>
+    <t>Comando que se encarga de modificar una notificacion de ser necesaria</t>
+  </si>
+  <si>
+    <t>Comando que se encarga de crear una notificacion de ser necesaria</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion necesaria para crear una notificacion</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion necesaria para modificar una notificacion</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion necesaria para consultar una notificacion</t>
+  </si>
+  <si>
+    <t>parametro que contiene la informacion necesaria para Eliminar una notificacion</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-001</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No debe existir otra Notificacion con el mismo identificador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los datos nuevos de Notificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango </t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-005</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-006</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-003</t>
+  </si>
+  <si>
+    <t>El usuario debe tener permisos para modificar una notificación</t>
+  </si>
+  <si>
+    <t>Los datos nuevos de Notificacion  deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>Debe existir la Notificacion  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No se debe Modificar ninguna notificacion de factura</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-004</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-007</t>
+  </si>
+  <si>
+    <t>Pol-Notificacion-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No se debe Eliminar ninguna notificacion de factura</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que ya existe una notificaion con ese identificador</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que el usuario no tiene permiso</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que la notificacion no existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se genera una excepcion indicando que no es posible modificar </t>
+  </si>
+  <si>
+    <t>Se genera una excepcio indicando que no es posible eliminar la notificacion</t>
+  </si>
+  <si>
+    <t>cancelar creacion de la notificacion</t>
+  </si>
+  <si>
+    <t>cancelar modificacion de la notificacion</t>
+  </si>
+  <si>
+    <t>cancelar consulta de notificacion</t>
+  </si>
+  <si>
+    <t>cancelar eliminacion de notificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,8 +629,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +702,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -546,13 +874,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -612,9 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -648,9 +1167,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -666,83 +1182,236 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,44 +1422,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{86165DE5-F594-4D61-BA27-ACDA65ED6A2C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,6 +1573,39 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de dominio anémico"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="Genero"/>
+      <sheetName val="TipoIdentificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Cliente</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1173,7 +1921,7 @@
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G44" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1937,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,76 +1950,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>66</v>
+      <c r="C1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="C4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" location="cliente!A1" display="Cliente" xr:uid="{8FE0D956-78EF-47E8-A87C-1C5A8C7C9708}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1279,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,97 +2062,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="132" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1452,29 +2203,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
+      <c r="Q4" s="35" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
+        <v>Crear Notificacion</v>
+      </c>
+      <c r="R4" s="33" t="str">
         <f>A19</f>
-        <v>Reponsabilidad 3</v>
+        <v xml:space="preserve">Modificar Notificacion  </v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A23</f>
+        <v>Consultar Notificacion</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f>A25</f>
+        <v>Eliminar  Notificacion</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1486,79 +2237,65 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>100</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
       <c r="P6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
@@ -1568,39 +2305,39 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -1610,37 +2347,39 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1651,34 +2390,36 @@
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
       <c r="K9" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="31"/>
-    </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-    </row>
-    <row r="12" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
@@ -1689,56 +2430,56 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65" t="s">
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65" t="s">
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65" t="s">
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65" t="s">
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="66"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="R15" s="115"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="137"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -1751,12 +2492,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -1766,102 +2507,320 @@
       <c r="Q16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="117" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="118"/>
+      <c r="C17" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
-    </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="H17" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="129" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" s="88"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="R17" s="74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="119"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="126"/>
+      <c r="O18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R18" s="75"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="103"/>
+      <c r="C19" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="90"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="R19" s="76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="77"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="R21" s="77"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="106"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="R22" s="78"/>
+    </row>
+    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="109"/>
+      <c r="C23" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="93"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="R24" s="80"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="112"/>
+      <c r="C25" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="R25" s="81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" s="82"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A11:C11"/>
@@ -1872,31 +2831,48 @@
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C19:F22"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K19:N22"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="H20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
+    <hyperlink ref="H25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{9CFC97C1-FDC7-4BCC-A442-03CBBA306898}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C31578C6-097C-48B5-85BE-E2B5695507BB}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{12E63051-0357-4C9D-ABE2-AAC9F4D1077D}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{1EEF2DB2-A99F-4C59-8304-4835FA7407E0}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{821E0C47-3835-4659-B0FA-56687A0DE151}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{22905DC7-C781-450C-BA99-3B5AF5CDD56E}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{98480B8D-5789-4D0D-9A12-1FCE9FA5B81E}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{1BF344DA-00DC-4E3D-9686-31B0C99A39F5}"/>
+    <hyperlink ref="B6" location="TipoNotificacion!A1" display="TipoNotificacion" xr:uid="{A5D674B5-3939-40B9-AC52-0C4FB830027A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1905,11 +2881,707 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:P3"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="105.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="138" t="str">
+        <f>'Listado Objetos de Dominio'!$A$4</f>
+        <v>TipoNotificación</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="132" t="str">
+        <f>'Listado Objetos de Dominio'!$B$4</f>
+        <v>Objeto de dominio que contiene la información de los tipos de notificaciones que tiene el spa</v>
+      </c>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="35" t="str">
+        <f>A14</f>
+        <v>Crear TipoNotificacion</v>
+      </c>
+      <c r="R4" s="33" t="str">
+        <f>A16</f>
+        <v>Modificar TipoNotificacion</v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A19</f>
+        <v>Consultar TipoNotificacion</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A21</f>
+        <v>Eliminar TipoNotificacion</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="115"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="137"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="118"/>
+      <c r="C14" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="88"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="90"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="106"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="109"/>
+      <c r="C19" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="93"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="R19" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="110"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="112"/>
+      <c r="C21" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" s="81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="K21:N22"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="K16:N18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
+    <hyperlink ref="H21" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4067D2EA-D206-4333-BA66-AC668084BF35}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,70 +3611,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="138" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>ListaNotificacion</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="132" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2053,29 +3725,29 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="str">
-        <f>A14</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+      <c r="Q4" s="35" t="str">
         <f>A15</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
+        <v>Crear ListaNotificacion</v>
+      </c>
+      <c r="R4" s="33" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 4</v>
+        <v>Consultar ListaNotificacion</v>
+      </c>
+      <c r="S4" s="34" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2087,37 +3759,37 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
+        <v>42</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -2129,261 +3801,720 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="45"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="38" t="s">
+    <row r="11" spans="1:20" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65" t="s">
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65" t="s">
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65" t="s">
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65" t="s">
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="66"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="19" t="s">
+      <c r="R13" s="115"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="137"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="67" t="s">
+      <c r="K14" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="19" t="s">
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R14" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="26"/>
-    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="27"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
+      <c r="A15" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="129" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="88"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="139"/>
+      <c r="C17" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="141"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H17" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 1'!R4" display="Reponsabilidad 2" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A14:B14" location="'Objeto Dominio 1'!Q4" display="Reponsabilidad 1" xr:uid="{D0D0BC22-347D-4800-B48E-FEA2C5DF8B46}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 1'!T4" display="Reponsabilidad 4" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 1'!S4" display="Reponsabilidad 3" xr:uid="{DBE4323C-BAC1-4FB0-A412-5378CE0BAF9B}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{AEA89E9C-A3A9-466B-879F-0C0AF1FAB704}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 1'!A17" display="'Objeto Dominio 1'!A17" xr:uid="{B626D156-0A41-468E-959B-E68586FE7F3C}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 1'!A18" display="'Objeto Dominio 1'!A18" xr:uid="{3D809A29-0E78-492B-86CB-BF7BEAC833DD}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 1'!A19" display="'Objeto Dominio 1'!A19" xr:uid="{90A416D1-D802-44B4-AFD6-0FEEF43CBC09}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{DE9B6E61-76A9-4ECC-BEFD-0CAF950EFA57}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CA56A934-E5D9-42DB-AA7F-D3AADE79CA87}"/>
+    <hyperlink ref="B7" location="cliente!A1" display="Cliente" xr:uid="{CF064FA6-EDE8-4FDD-B5B7-9A2E2FF3B94A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD12DCFD-F646-4AD4-841D-DFCAB71A2044}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="138" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$2</f>
+        <v>Cliente</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="132" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$2</f>
+        <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
+      </c>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="41">
+        <v>1</v>
+      </c>
+      <c r="D8" s="41">
+        <v>50</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{7D683D42-20E1-464F-980B-93954EB354EE}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{223A6719-F639-418D-9131-72F5E916C92C}"/>
+    <hyperlink ref="B10" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{352E732A-4C67-49A4-94BF-151FA293FD80}"/>
+    <hyperlink ref="B11" location="Genero!A1" display="Genero" xr:uid="{92E2C5D9-ECC4-42D4-83C3-5EC0A8A31A9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModeloDominioEnriquecido-Notificacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DD7ECA-5746-440E-8BE3-29EE6463504F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EE5B0A-1FEA-4A76-8B4E-D7585525F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -633,12 +633,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1242,6 +1244,108 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,31 +1397,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,169 +1466,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1589,7 +1591,7 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="A2" t="str">
@@ -1600,9 +1602,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2032,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,24 +2064,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2135,24 +2137,24 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="132" t="str">
+      <c r="B3" s="58" t="str">
         <f>+'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de las notificaciones que emite el Spa</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2413,11 +2415,11 @@
       <c r="T9" s="30"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="134"/>
-      <c r="C11" s="135"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
@@ -2442,44 +2444,44 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114" t="s">
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114" t="s">
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114" t="s">
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="115"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -2492,12 +2494,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="116" t="s">
+      <c r="K16" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -2512,30 +2514,30 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="121" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="127" t="s">
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="88" t="s">
+      <c r="H17" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="129" t="s">
+      <c r="I17" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="88"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
       <c r="O17" s="20" t="s">
         <v>152</v>
       </c>
@@ -2545,25 +2547,25 @@
       <c r="Q17" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="R17" s="74" t="s">
+      <c r="R17" s="131" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="126"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="20" t="s">
         <v>153</v>
       </c>
@@ -2573,33 +2575,33 @@
       <c r="Q18" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="75"/>
+      <c r="R18" s="132"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="57" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="90" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="95" t="s">
+      <c r="H19" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="I19" s="126" t="s">
         <v>149</v>
       </c>
-      <c r="J19" s="90"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="93"/>
       <c r="O19" s="22" t="s">
         <v>156</v>
       </c>
@@ -2609,25 +2611,25 @@
       <c r="Q19" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="76" t="s">
+      <c r="R19" s="133" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="96"/>
       <c r="O20" s="22" t="s">
         <v>153</v>
       </c>
@@ -2637,23 +2639,23 @@
       <c r="Q20" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R20" s="77"/>
+      <c r="R20" s="134"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="62"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="96"/>
       <c r="O21" s="22" t="s">
         <v>157</v>
       </c>
@@ -2663,23 +2665,23 @@
       <c r="Q21" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="R21" s="77"/>
+      <c r="R21" s="134"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="65"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="22" t="s">
         <v>158</v>
       </c>
@@ -2689,33 +2691,33 @@
       <c r="Q22" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="R22" s="78"/>
+      <c r="R22" s="135"/>
     </row>
     <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="66" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="93" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="H23" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I23" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="93"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="68"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="102"/>
       <c r="O23" s="27" t="s">
         <v>163</v>
       </c>
@@ -2725,25 +2727,25 @@
       <c r="Q23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="79" t="s">
+      <c r="R23" s="136" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="105"/>
       <c r="O24" s="27" t="s">
         <v>164</v>
       </c>
@@ -2753,33 +2755,33 @@
       <c r="Q24" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="R24" s="80"/>
+      <c r="R24" s="137"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="108"/>
+      <c r="C25" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="81" t="s">
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="J25" s="81"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
       <c r="O25" s="30" t="s">
         <v>157</v>
       </c>
@@ -2789,25 +2791,25 @@
       <c r="Q25" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="R25" s="81" t="s">
+      <c r="R25" s="112" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
       <c r="O26" s="45" t="s">
         <v>165</v>
       </c>
@@ -2817,10 +2819,44 @@
       <c r="Q26" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="R26" s="82"/>
+      <c r="R26" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="K19:N22"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C19:F22"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="K17:N18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A11:C11"/>
@@ -2829,40 +2865,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:N15"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="K17:N18"/>
-    <mergeCell ref="A19:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C19:F22"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K19:N22"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="K25:N26"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R25:R26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2915,24 +2917,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -2961,24 +2963,24 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="132" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de notificaciones que tiene el spa</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3136,11 +3138,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="135"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -3165,44 +3167,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114" t="s">
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114" t="s">
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114" t="s">
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="115"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -3215,12 +3217,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="116" t="s">
+      <c r="K13" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -3235,30 +3237,30 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="121" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="127" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="129" t="s">
+      <c r="I14" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
       <c r="O14" s="20" t="s">
         <v>96</v>
       </c>
@@ -3273,20 +3275,20 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="126"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="20" t="s">
         <v>97</v>
       </c>
@@ -3301,30 +3303,30 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="90" t="s">
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="22" t="s">
         <v>96</v>
       </c>
@@ -3339,20 +3341,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="96"/>
       <c r="O17" s="22" t="s">
         <v>97</v>
       </c>
@@ -3367,20 +3369,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="65"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="99"/>
       <c r="O18" s="22" t="s">
         <v>98</v>
       </c>
@@ -3395,30 +3397,30 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="93" t="s">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="98" t="s">
+      <c r="H19" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="86" t="s">
+      <c r="I19" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="93"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="68"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="102"/>
       <c r="O19" s="27" t="s">
         <v>103</v>
       </c>
@@ -3433,20 +3435,20 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="71"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="105"/>
       <c r="O20" s="27" t="s">
         <v>104</v>
       </c>
@@ -3461,89 +3463,70 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="81" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="100" t="s">
+      <c r="H21" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="106" t="s">
         <v>95</v>
       </c>
       <c r="J21" s="47"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="81" t="s">
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="P21" s="72" t="s">
+      <c r="P21" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="Q21" s="72" t="s">
+      <c r="Q21" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="R21" s="81" t="s">
+      <c r="R21" s="112" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="73"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="45"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="82"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="K16:N18"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -3557,11 +3540,30 @@
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J16:J18"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="C21:F22"/>
+    <mergeCell ref="A16:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3611,24 +3613,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3657,24 +3659,24 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="132" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion que relaciona las notificaciones a un cliente </v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3858,11 +3860,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3887,44 +3889,44 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114" t="s">
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114" t="s">
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="115"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3937,12 +3939,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="116" t="s">
+      <c r="K14" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3957,30 +3959,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="121" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="127" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="129" t="s">
+      <c r="I15" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="J15" s="88"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="20" t="s">
         <v>127</v>
       </c>
@@ -3995,20 +3997,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="126"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="20" t="s">
         <v>126</v>
       </c>
@@ -4023,30 +4025,30 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="141"/>
+      <c r="C17" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="141" t="s">
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="139" t="s">
+      <c r="H17" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="141"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
       <c r="O17" s="22" t="s">
         <v>128</v>
       </c>
@@ -4061,20 +4063,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="53" t="s">
         <v>129</v>
       </c>
@@ -4090,15 +4092,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:N18"/>
     <mergeCell ref="Q13:R13"/>
@@ -4115,6 +4108,15 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:N16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{AEA89E9C-A3A9-466B-879F-0C0AF1FAB704}"/>
@@ -4155,24 +4157,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4201,24 +4203,24 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="132" t="str">
+      <c r="B3" s="58" t="str">
         <f>'[1]Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4521,6 +4523,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -4664,22 +4681,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4697,23 +4716,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>
